--- a/Matuchet/Инвентаризация 2023/База оборудования 2023.xlsx
+++ b/Matuchet/Инвентаризация 2023/База оборудования 2023.xlsx
@@ -1123,7 +1123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1169,6 +1169,9 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1453,7 +1456,7 @@
   <dimension ref="A1:J126"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3573,7 +3576,7 @@
       <c r="B77" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="C77" s="15" t="s">
+      <c r="C77" s="22" t="s">
         <v>83</v>
       </c>
       <c r="D77" s="16" t="s">
